--- a/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/quality_and_freight_data/deductions/capesize_deductions.xlsx
+++ b/models/calculation engines/Supply Demand Costs n Prices Alcoa/outputs/quality_and_freight_data/deductions/capesize_deductions.xlsx
@@ -1049,34 +1049,34 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>4.25531914893617</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>4.25531914893617</v>
+        <v>4.301075268817205</v>
       </c>
       <c r="F15" t="n">
-        <v>4.25531914893617</v>
+        <v>4.301075268817205</v>
       </c>
       <c r="G15" t="n">
-        <v>4.25531914893617</v>
+        <v>4.301075268817205</v>
       </c>
       <c r="H15" t="n">
-        <v>4.25531914893617</v>
+        <v>4.301075268817205</v>
       </c>
       <c r="I15" t="n">
-        <v>4.25531914893617</v>
+        <v>4.301075268817205</v>
       </c>
       <c r="J15" t="n">
-        <v>4.25531914893617</v>
+        <v>4.301075268817205</v>
       </c>
       <c r="K15" t="n">
-        <v>4.25531914893617</v>
+        <v>4.301075268817205</v>
       </c>
       <c r="L15" t="n">
-        <v>4.25531914893617</v>
+        <v>4.301075268817205</v>
       </c>
       <c r="M15" t="n">
-        <v>4.25531914893617</v>
+        <v>4.301075268817205</v>
       </c>
     </row>
     <row r="16">
@@ -1258,40 +1258,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>4.597701149425287</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.597701149425287</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>4.597701149425287</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>4.597701149425287</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>4.597701149425287</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>4.597701149425287</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>4.597701149425287</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4.597701149425287</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>4.597701149425287</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>4.597701149425287</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>4.597701149425287</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>4.597701149425287</v>
       </c>
     </row>
     <row r="21">
@@ -1304,37 +1304,37 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5701254275940707</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5701254275940707</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5701254275940707</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5701254275940707</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5701254275940707</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5701254275940707</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5701254275940707</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5701254275940707</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5701254275940707</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5701254275940707</v>
       </c>
     </row>
     <row r="22">
@@ -1476,37 +1476,37 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1734,37 +1734,37 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1777,37 +1777,37 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
